--- a/biology/Médecine/Noyau_vestibulaire_latéral/Noyau_vestibulaire_latéral.xlsx
+++ b/biology/Médecine/Noyau_vestibulaire_latéral/Noyau_vestibulaire_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noyau_vestibulaire_lat%C3%A9ral</t>
+          <t>Noyau_vestibulaire_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau vestibulaire latéral (ou noyau de Deiters ) est le noyau vestibulaire en continuité vers le haut et latéralement avec le noyau vestibulaire médian, et où se terminent de nombreuses branches ascendantes du nerf vestibulaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noyau_vestibulaire_lat%C3%A9ral</t>
+          <t>Noyau_vestibulaire_latéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau vestibulaire latéral se compose de très grandes cellules multipolaires dont les axones forment une partie importante du faisceau longitudinal dorsal du même côté et du côté opposé.
 Les axones bifurquent à leur entrée dans le faisceau en :
